--- a/access_list.xlsx
+++ b/access_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/Fussballdaten/uefa_ranking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{C14F0406-73EE-4E57-A883-5CF8202EEC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8451DF2C-21F6-42F4-B5F4-A9FDD180E4CE}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{C14F0406-73EE-4E57-A883-5CF8202EEC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02659D1E-974A-4DFC-A99A-618051A57942}"/>
   <bookViews>
-    <workbookView xWindow="27120" yWindow="2076" windowWidth="17280" windowHeight="8964" xr2:uid="{9EBCBA20-F37A-4829-B7B9-7FF32AFFA185}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9EBCBA20-F37A-4829-B7B9-7FF32AFFA185}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="26">
   <si>
     <t>Ranking</t>
   </si>
@@ -466,7 +466,7 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,6 +872,12 @@
       <c r="D16" t="s">
         <v>16</v>
       </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
       <c r="I16" t="s">
         <v>15</v>
       </c>
